--- a/web/downloadfiles/PlantillaDirectorioCAD_CargaMasiva.xlsx
+++ b/web/downloadfiles/PlantillaDirectorioCAD_CargaMasiva.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Vicepresidente</t>
   </si>
@@ -58,7 +58,22 @@
     <t xml:space="preserve">Nombre plataforma</t>
   </si>
   <si>
-    <t xml:space="preserve">Etapa </t>
+    <t xml:space="preserve">Etapa 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etapa 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etapa 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etapa 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etapa 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etapa 6</t>
   </si>
 </sst>
 </file>
@@ -68,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -97,11 +112,6 @@
       <name val="Corbel"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -167,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -186,10 +196,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -274,10 +280,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>221040</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>580320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -292,7 +298,83 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7128000" cy="1157400"/>
+          <a:ext cx="7329600" cy="1156680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>325080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463680</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Imagen 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect l="-2843" t="0" r="51573" b="0"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7074360" y="0"/>
+          <a:ext cx="4569840" cy="1156680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>240120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:srcRect l="0" t="0" r="11837" b="0"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15907320" y="0"/>
+          <a:ext cx="7329960" cy="1156680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -307,30 +389,68 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>805680</xdr:colOff>
+      <xdr:colOff>215640</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>805680</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>301320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Imagen 3" descr=""/>
+        <xdr:cNvPr id="3" name="Imagen 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId4"/>
         <a:srcRect l="-2843" t="0" r="51573" b="0"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6899760" y="0"/>
-          <a:ext cx="4159440" cy="1157400"/>
+          <a:off x="11396160" y="0"/>
+          <a:ext cx="4516560" cy="1156680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1449000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1476720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:srcRect l="-2843" t="0" r="51573" b="0"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22969080" y="0"/>
+          <a:ext cx="4458960" cy="1156680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -350,16 +470,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="90.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -417,20 +538,21 @@
       <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="5"/>
+      <c r="N2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
